--- a/va_facility_data_2025-02-20/Robert Silvey Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Robert%20Silvey%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Robert Silvey Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Robert%20Silvey%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb321562dbd7e40cc9d9320354e6c6dcd"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra48b51afd3c74f0a9f2aef76d4f76f7a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0232abf81ba544b39866de200e63f2e3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R93b0221fec704eb892ce8d7d2576437b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra0d70778414146e0800c51c0ed79fc8a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5993d6860db64f769fba108fe6845345"/>
   </x:sheets>
 </x:workbook>
 </file>
